--- a/Data_processed/industry/wood.xlsx
+++ b/Data_processed/industry/wood.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/industry/wood.xlsx
+++ b/Data_processed/industry/wood.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon MJ</t>
+          <t>Carbon kg-CO2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/Data_processed/industry/wood.xlsx
+++ b/Data_processed/industry/wood.xlsx
@@ -134,6 +134,51 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,37 +481,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total MJ</t>
+          <t>carbon (kg CO2 eq)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon kg-CO2</t>
+          <t>ced (MJ)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CED MJ</t>
+          <t>climate change (kg CO2 eq)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>region</t>
         </is>
       </c>
     </row>
@@ -487,13 +532,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.05654318593360001</v>
+        <v>0.23632244</v>
       </c>
       <c r="E2" t="n">
-        <v>0.23632244</v>
+        <v>24.824579</v>
       </c>
       <c r="F2" t="n">
-        <v>24.824579</v>
+        <v>6.5892967e-06</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -518,13 +563,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5.3821844798986</v>
+        <v>3.686322466666667</v>
       </c>
       <c r="E3" t="n">
-        <v>3.686322466666667</v>
+        <v>24.824579</v>
       </c>
       <c r="F3" t="n">
-        <v>24.824579</v>
+        <v>0.00010278445</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -549,13 +594,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.05428031674140001</v>
+        <v>0.2280922533333334</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2280922533333334</v>
+        <v>24.716519</v>
       </c>
       <c r="F4" t="n">
-        <v>24.716519</v>
+        <v>6.3598173e-06</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -580,13 +625,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.548680323410399</v>
+        <v>3.678092266666667</v>
       </c>
       <c r="E5" t="n">
-        <v>3.678092266666667</v>
+        <v>24.716519</v>
       </c>
       <c r="F5" t="n">
-        <v>24.716519</v>
+        <v>0.00010255497</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,13 +656,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.0530734522907</v>
+        <v>0.22370282</v>
       </c>
       <c r="E6" t="n">
-        <v>0.22370282</v>
+        <v>24.658887</v>
       </c>
       <c r="F6" t="n">
-        <v>24.658887</v>
+        <v>6.2374283e-06</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -642,13 +687,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.507498461802701</v>
+        <v>3.6737028</v>
       </c>
       <c r="E7" t="n">
-        <v>3.6737028</v>
+        <v>24.658887</v>
       </c>
       <c r="F7" t="n">
-        <v>24.658887</v>
+        <v>0.00010243258</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -673,13 +718,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.05971120397</v>
+        <v>0.2478447</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2478447</v>
+        <v>24.975863</v>
       </c>
       <c r="F8" t="n">
-        <v>24.975863</v>
+        <v>6.9105679e-06</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -704,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5.300336178349999</v>
+        <v>3.697844733333333</v>
       </c>
       <c r="E9" t="n">
-        <v>3.697844733333333</v>
+        <v>24.975863</v>
       </c>
       <c r="F9" t="n">
-        <v>24.975863</v>
+        <v>0.00010310572</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,13 +780,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.0569957603652</v>
+        <v>0.23796848</v>
       </c>
       <c r="E10" t="n">
-        <v>0.23796848</v>
+        <v>24.846191</v>
       </c>
       <c r="F10" t="n">
-        <v>24.846191</v>
+        <v>6.6351926e-06</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -766,13 +811,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5.2117457453902</v>
+        <v>3.687968466666667</v>
       </c>
       <c r="E11" t="n">
-        <v>3.687968466666667</v>
+        <v>24.846191</v>
       </c>
       <c r="F11" t="n">
-        <v>24.846191</v>
+        <v>0.00010283035</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -797,13 +842,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.0585043395203</v>
+        <v>0.2434552666666667</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2434552666666667</v>
+        <v>24.918231</v>
       </c>
       <c r="F12" t="n">
-        <v>24.918231</v>
+        <v>6.7881789e-06</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -828,13 +873,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6.0075981167423</v>
+        <v>3.693455266666667</v>
       </c>
       <c r="E13" t="n">
-        <v>3.693455266666667</v>
+        <v>24.918231</v>
       </c>
       <c r="F13" t="n">
-        <v>24.918231</v>
+        <v>0.00010298333</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -859,13 +904,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.0544311744486</v>
+        <v>0.2286409333333334</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2286409333333334</v>
+        <v>24.723723</v>
       </c>
       <c r="F14" t="n">
-        <v>24.723723</v>
+        <v>6.3751159e-06</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -890,13 +935,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6.548831178137601</v>
+        <v>3.678640933333333</v>
       </c>
       <c r="E15" t="n">
-        <v>3.678640933333333</v>
+        <v>24.723723</v>
       </c>
       <c r="F15" t="n">
-        <v>24.723723</v>
+        <v>0.00010257027</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -921,13 +966,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.0557888969155</v>
+        <v>0.2335790466666667</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2335790466666667</v>
+        <v>24.788559</v>
       </c>
       <c r="F16" t="n">
-        <v>24.788559</v>
+        <v>6.5128036e-06</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -952,13 +997,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>7.168488894782501</v>
+        <v>3.683579066666667</v>
       </c>
       <c r="E17" t="n">
-        <v>3.683579066666667</v>
+        <v>24.788559</v>
       </c>
       <c r="F17" t="n">
-        <v>24.788559</v>
+        <v>0.00010270796</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -983,13 +1028,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.0529225955835</v>
+        <v>0.2231541466666667</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2231541466666667</v>
+        <v>24.651683</v>
       </c>
       <c r="F18" t="n">
-        <v>24.651683</v>
+        <v>6.2221297e-06</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1014,13 +1059,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4.8985226070755</v>
+        <v>3.673154133333334</v>
       </c>
       <c r="E19" t="n">
-        <v>3.673154133333334</v>
+        <v>24.651683</v>
       </c>
       <c r="F19" t="n">
-        <v>24.651683</v>
+        <v>0.00010241728</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1045,13 +1090,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.056794488493</v>
+        <v>0.2334096733333333</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2334096733333333</v>
+        <v>24.991469</v>
       </c>
       <c r="F20" t="n">
-        <v>24.991469</v>
+        <v>6.5080811e-06</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1076,13 +1121,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.0734392797711</v>
+        <v>0.2977744933333334</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2977744933333334</v>
+        <v>25.631426</v>
       </c>
       <c r="F21" t="n">
-        <v>25.631426</v>
+        <v>8.302743e-06</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1107,13 +1152,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5.1852517559461</v>
+        <v>3.747774466666667</v>
       </c>
       <c r="E22" t="n">
-        <v>3.747774466666667</v>
+        <v>25.631426</v>
       </c>
       <c r="F22" t="n">
-        <v>25.631426</v>
+        <v>0.0001044979</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1138,13 +1183,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.062577505403</v>
+        <v>0.2582696</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2582696</v>
+        <v>25.112739</v>
       </c>
       <c r="F23" t="n">
-        <v>25.112739</v>
+        <v>7.2012418e-06</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1169,13 +1214,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10.404177456157</v>
+        <v>3.7082696</v>
       </c>
       <c r="E24" t="n">
-        <v>3.7082696</v>
+        <v>25.112739</v>
       </c>
       <c r="F24" t="n">
-        <v>25.112739</v>
+        <v>0.0001033964</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1200,13 +1245,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.05428031674140001</v>
+        <v>0.2280922533333334</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2280922533333334</v>
+        <v>24.716519</v>
       </c>
       <c r="F25" t="n">
-        <v>24.716519</v>
+        <v>6.3598173e-06</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1231,13 +1276,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5.569705323410399</v>
+        <v>3.678092266666667</v>
       </c>
       <c r="E26" t="n">
-        <v>3.678092266666667</v>
+        <v>24.716519</v>
       </c>
       <c r="F26" t="n">
-        <v>24.716519</v>
+        <v>0.00010255497</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1262,13 +1307,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.0536768855116</v>
+        <v>0.22589754</v>
       </c>
       <c r="E27" t="n">
-        <v>0.22589754</v>
+        <v>24.687703</v>
       </c>
       <c r="F27" t="n">
-        <v>24.687703</v>
+        <v>6.2986228e-06</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1293,13 +1338,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5.1740768931016</v>
+        <v>3.675897533333334</v>
       </c>
       <c r="E28" t="n">
-        <v>3.675897533333334</v>
+        <v>24.687703</v>
       </c>
       <c r="F28" t="n">
-        <v>24.687703</v>
+        <v>0.00010249378</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1324,13 +1369,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.0598620616882</v>
+        <v>0.24839338</v>
       </c>
       <c r="E29" t="n">
-        <v>0.24839338</v>
+        <v>24.983067</v>
       </c>
       <c r="F29" t="n">
-        <v>24.983067</v>
+        <v>6.9258665e-06</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1355,13 +1400,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9.0961620330872</v>
+        <v>3.6983934</v>
       </c>
       <c r="E30" t="n">
-        <v>3.6983934</v>
+        <v>24.983067</v>
       </c>
       <c r="F30" t="n">
-        <v>24.983067</v>
+        <v>0.00010312102</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1386,13 +1431,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.0541294590332</v>
+        <v>0.2275435733333333</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2275435733333333</v>
+        <v>24.709315</v>
       </c>
       <c r="F31" t="n">
-        <v>24.709315</v>
+        <v>6.3445187e-06</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1417,13 +1462,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6.4798294686832</v>
+        <v>3.6775436</v>
       </c>
       <c r="E32" t="n">
-        <v>3.6775436</v>
+        <v>24.709315</v>
       </c>
       <c r="F32" t="n">
-        <v>24.709315</v>
+        <v>0.00010253967</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1448,13 +1493,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.06438780098249999</v>
+        <v>0.2648537533333333</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2648537533333333</v>
+        <v>25.199187</v>
       </c>
       <c r="F33" t="n">
-        <v>25.199187</v>
+        <v>7.3848253e-06</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1479,13 +1524,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>9.3222453369735</v>
+        <v>3.714853733333334</v>
       </c>
       <c r="E34" t="n">
-        <v>3.714853733333334</v>
+        <v>25.199187</v>
       </c>
       <c r="F34" t="n">
-        <v>25.199187</v>
+        <v>0.00010357998</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1510,13 +1555,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.0422495599282</v>
+        <v>0.1005204866666667</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1005204866666667</v>
+        <v>25.625247</v>
       </c>
       <c r="F35" t="n">
-        <v>25.625247</v>
+        <v>2.8027779e-06</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1541,13 +1586,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.0686118247614</v>
+        <v>0.2802167666666667</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2802167666666667</v>
+        <v>25.400898</v>
       </c>
       <c r="F36" t="n">
-        <v>25.400898</v>
+        <v>7.813186899999999e-06</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1572,13 +1617,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6.253861831305401</v>
+        <v>3.730216733333334</v>
       </c>
       <c r="E37" t="n">
-        <v>3.730216733333334</v>
+        <v>25.400898</v>
       </c>
       <c r="F37" t="n">
-        <v>25.400898</v>
+        <v>0.00010400834</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1603,13 +1648,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.0577500503932</v>
+        <v>0.2407118733333333</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2407118733333333</v>
+        <v>24.882211</v>
       </c>
       <c r="F38" t="n">
-        <v>24.882211</v>
+        <v>6.7116857e-06</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1634,13 +1679,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5.040750031516199</v>
+        <v>3.690711866666667</v>
       </c>
       <c r="E39" t="n">
-        <v>3.690711866666667</v>
+        <v>24.882211</v>
       </c>
       <c r="F39" t="n">
-        <v>24.882211</v>
+        <v>0.00010290684</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1665,13 +1710,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.053978601116</v>
+        <v>0.2269949</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2269949</v>
+        <v>24.702111</v>
       </c>
       <c r="F40" t="n">
-        <v>24.702111</v>
+        <v>6.3292201e-06</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1696,13 +1741,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3.879383602746</v>
+        <v>3.676994866666667</v>
       </c>
       <c r="E41" t="n">
-        <v>3.676994866666667</v>
+        <v>24.702111</v>
       </c>
       <c r="F41" t="n">
-        <v>24.702111</v>
+        <v>0.00010252437</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1727,13 +1772,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.07675815551579999</v>
+        <v>0.3098454333333333</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3098454333333333</v>
+        <v>25.789914</v>
       </c>
       <c r="F42" t="n">
-        <v>25.789914</v>
+        <v>8.639312799999999e-06</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1758,13 +1803,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>8.2199581091248</v>
+        <v>3.7598454</v>
       </c>
       <c r="E43" t="n">
-        <v>3.7598454</v>
+        <v>25.789914</v>
       </c>
       <c r="F43" t="n">
-        <v>25.789914</v>
+        <v>0.00010483447</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1789,13 +1834,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.06966783040390001</v>
+        <v>0.28405752</v>
       </c>
       <c r="E44" t="n">
-        <v>0.28405752</v>
+        <v>25.451326</v>
       </c>
       <c r="F44" t="n">
-        <v>25.451326</v>
+        <v>7.9202773e-06</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1820,13 +1865,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>6.701467837085901</v>
+        <v>3.734057533333333</v>
       </c>
       <c r="E45" t="n">
-        <v>3.734057533333333</v>
+        <v>25.451326</v>
       </c>
       <c r="F45" t="n">
-        <v>25.451326</v>
+        <v>0.00010411543</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1851,13 +1896,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.0502214460532</v>
+        <v>0.2111431866666667</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2111431866666667</v>
+        <v>24.611202</v>
       </c>
       <c r="F46" t="n">
-        <v>24.611202</v>
+        <v>5.8872323e-06</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1882,13 +1927,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.0527717375663</v>
+        <v>0.2226054666666667</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2226054666666667</v>
+        <v>24.644479</v>
       </c>
       <c r="F47" t="n">
-        <v>24.644479</v>
+        <v>6.206831e-06</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1913,13 +1958,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>4.898371752038301</v>
+        <v>3.672605466666667</v>
       </c>
       <c r="E48" t="n">
-        <v>3.672605466666667</v>
+        <v>24.644479</v>
       </c>
       <c r="F48" t="n">
-        <v>24.644479</v>
+        <v>0.00010240199</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1944,13 +1989,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.099918426783</v>
+        <v>0.39353398</v>
       </c>
       <c r="E49" t="n">
-        <v>0.39353398</v>
+        <v>26.918023</v>
       </c>
       <c r="F49" t="n">
-        <v>26.918023</v>
+        <v>1.0972772e-05</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1975,13 +2020,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.0580517669977</v>
+        <v>0.2418092333333334</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2418092333333334</v>
+        <v>24.896619</v>
       </c>
       <c r="F50" t="n">
-        <v>24.896619</v>
+        <v>6.742283e-06</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2006,13 +2051,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>5.8371130421607</v>
+        <v>3.6918092</v>
       </c>
       <c r="E51" t="n">
-        <v>3.6918092</v>
+        <v>24.896619</v>
       </c>
       <c r="F51" t="n">
-        <v>24.896619</v>
+        <v>0.00010293744</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2037,13 +2082,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.0541294590332</v>
+        <v>0.2275435733333333</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2275435733333333</v>
+        <v>24.709315</v>
       </c>
       <c r="F52" t="n">
-        <v>24.709315</v>
+        <v>6.3445187e-06</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2068,13 +2113,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>6.4798294686832</v>
+        <v>3.6775436</v>
       </c>
       <c r="E53" t="n">
-        <v>3.6775436</v>
+        <v>24.709315</v>
       </c>
       <c r="F53" t="n">
-        <v>24.709315</v>
+        <v>0.00010253967</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2099,13 +2144,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.057599192596</v>
+        <v>0.2401631933333333</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2401631933333333</v>
+        <v>24.875007</v>
       </c>
       <c r="F54" t="n">
-        <v>24.875007</v>
+        <v>6.6963871e-06</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2130,13 +2175,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6.603524176699</v>
+        <v>3.6901632</v>
       </c>
       <c r="E55" t="n">
-        <v>3.6901632</v>
+        <v>24.875007</v>
       </c>
       <c r="F55" t="n">
-        <v>24.875007</v>
+        <v>0.00010289154</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2161,13 +2206,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.0607672096225</v>
+        <v>0.2516854533333334</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2516854533333334</v>
+        <v>25.026291</v>
       </c>
       <c r="F56" t="n">
-        <v>25.026291</v>
+        <v>7.0176583e-06</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2192,13 +2237,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>9.509267174140499</v>
+        <v>3.701685466666667</v>
       </c>
       <c r="E57" t="n">
-        <v>3.701685466666667</v>
+        <v>25.026291</v>
       </c>
       <c r="F57" t="n">
-        <v>25.026291</v>
+        <v>0.00010321281</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2223,13 +2268,13 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.0880725034066</v>
+        <v>0.35099636</v>
       </c>
       <c r="E58" t="n">
-        <v>0.35099636</v>
+        <v>26.330213</v>
       </c>
       <c r="F58" t="n">
-        <v>26.330213</v>
+        <v>9.7867098e-06</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2254,13 +2299,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>10.7044721844956</v>
+        <v>3.800996333333333</v>
       </c>
       <c r="E59" t="n">
-        <v>3.800996333333333</v>
+        <v>26.330213</v>
       </c>
       <c r="F59" t="n">
-        <v>26.330213</v>
+        <v>0.00010598186</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2285,13 +2330,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.0548837490712</v>
+        <v>0.2302869733333333</v>
       </c>
       <c r="E60" t="n">
-        <v>0.2302869733333333</v>
+        <v>24.745335</v>
       </c>
       <c r="F60" t="n">
-        <v>24.745335</v>
+        <v>6.4210118e-06</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2316,13 +2361,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3.7944137538192</v>
+        <v>3.680287</v>
       </c>
       <c r="E61" t="n">
-        <v>3.680287</v>
+        <v>24.745335</v>
       </c>
       <c r="F61" t="n">
-        <v>24.745335</v>
+        <v>0.00010261617</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2347,13 +2392,13 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.0548837490712</v>
+        <v>0.2302869733333333</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2302869733333333</v>
+        <v>24.745335</v>
       </c>
       <c r="F62" t="n">
-        <v>24.745335</v>
+        <v>6.4210118e-06</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2378,13 +2423,13 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.0580517669977</v>
+        <v>0.2418092333333334</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2418092333333334</v>
+        <v>24.896619</v>
       </c>
       <c r="F63" t="n">
-        <v>24.896619</v>
+        <v>6.742283e-06</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2409,13 +2454,13 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>8.2012517421607</v>
+        <v>3.6918092</v>
       </c>
       <c r="E64" t="n">
-        <v>3.6918092</v>
+        <v>24.896619</v>
       </c>
       <c r="F64" t="n">
-        <v>24.896619</v>
+        <v>0.00010293744</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2440,13 +2485,13 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.0541294590332</v>
+        <v>0.2275435733333333</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2275435733333333</v>
+        <v>24.709315</v>
       </c>
       <c r="F65" t="n">
-        <v>24.709315</v>
+        <v>6.3445187e-06</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2471,13 +2516,13 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>3.1478794686832</v>
+        <v>3.6775436</v>
       </c>
       <c r="E66" t="n">
-        <v>3.6775436</v>
+        <v>24.709315</v>
       </c>
       <c r="F66" t="n">
-        <v>24.709315</v>
+        <v>0.00010253967</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2502,13 +2547,13 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.0559397546137</v>
+        <v>0.2341277266666666</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2341277266666666</v>
+        <v>24.795763</v>
       </c>
       <c r="F67" t="n">
-        <v>24.795763</v>
+        <v>6.5281022e-06</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2533,13 +2578,13 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3.5618897494997</v>
+        <v>3.684127733333333</v>
       </c>
       <c r="E68" t="n">
-        <v>3.684127733333333</v>
+        <v>24.795763</v>
       </c>
       <c r="F68" t="n">
-        <v>24.795763</v>
+        <v>0.00010272326</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2564,13 +2609,13 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.0541294590332</v>
+        <v>0.2275435733333333</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2275435733333333</v>
+        <v>24.709315</v>
       </c>
       <c r="F69" t="n">
-        <v>24.709315</v>
+        <v>6.3445187e-06</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2595,13 +2640,13 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>4.0066294686832</v>
+        <v>3.6775436</v>
       </c>
       <c r="E70" t="n">
-        <v>3.6775436</v>
+        <v>24.709315</v>
       </c>
       <c r="F70" t="n">
-        <v>24.709315</v>
+        <v>0.00010253967</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2626,13 +2671,13 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.06333179533</v>
+        <v>0.261013</v>
       </c>
       <c r="E71" t="n">
-        <v>0.261013</v>
+        <v>25.148759</v>
       </c>
       <c r="F71" t="n">
-        <v>25.148759</v>
+        <v>7.2777349e-06</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2657,13 +2702,13 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>10.679731641183</v>
+        <v>3.711013</v>
       </c>
       <c r="E72" t="n">
-        <v>3.711013</v>
+        <v>25.148759</v>
       </c>
       <c r="F72" t="n">
-        <v>25.148759</v>
+        <v>0.00010347289</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2688,13 +2733,13 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.057141616168</v>
+        <v>0.1612439133333333</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1612439133333333</v>
+        <v>26.070869</v>
       </c>
       <c r="F73" t="n">
-        <v>26.070869</v>
+        <v>4.4959082e-06</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2719,13 +2764,13 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>3.689654136546</v>
+        <v>0.1612439133333333</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1612439133333333</v>
+        <v>26.070869</v>
       </c>
       <c r="F74" t="n">
-        <v>26.070869</v>
+        <v>4.4959082e-06</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2750,13 +2795,13 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>5.9128339070979</v>
+        <v>3.692357933333333</v>
       </c>
       <c r="E75" t="n">
-        <v>3.692357933333333</v>
+        <v>24.903823</v>
       </c>
       <c r="F75" t="n">
-        <v>24.903823</v>
+        <v>0.00010295274</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2781,13 +2826,13 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.05654318593360001</v>
+        <v>0.23632244</v>
       </c>
       <c r="E76" t="n">
-        <v>0.23632244</v>
+        <v>24.824579</v>
       </c>
       <c r="F76" t="n">
-        <v>24.824579</v>
+        <v>6.5892967e-06</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2812,13 +2857,13 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5.4689181798986</v>
+        <v>3.686322466666667</v>
       </c>
       <c r="E77" t="n">
-        <v>3.686322466666667</v>
+        <v>24.824579</v>
       </c>
       <c r="F77" t="n">
-        <v>24.824579</v>
+        <v>0.00010278445</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2843,13 +2888,13 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.05654318593360001</v>
+        <v>0.23632244</v>
       </c>
       <c r="E78" t="n">
-        <v>0.23632244</v>
+        <v>24.824579</v>
       </c>
       <c r="F78" t="n">
-        <v>24.824579</v>
+        <v>6.5892967e-06</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2874,13 +2919,13 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>7.1005431798986</v>
+        <v>3.686322466666667</v>
       </c>
       <c r="E79" t="n">
-        <v>3.686322466666667</v>
+        <v>24.824579</v>
       </c>
       <c r="F79" t="n">
-        <v>24.824579</v>
+        <v>0.00010278445</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2905,13 +2950,13 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.0577500503932</v>
+        <v>0.2407118733333333</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2407118733333333</v>
+        <v>24.882211</v>
       </c>
       <c r="F80" t="n">
-        <v>24.882211</v>
+        <v>6.7116857e-06</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2936,13 +2981,13 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>8.1322500315162</v>
+        <v>3.690711866666667</v>
       </c>
       <c r="E81" t="n">
-        <v>3.690711866666667</v>
+        <v>24.882211</v>
       </c>
       <c r="F81" t="n">
-        <v>24.882211</v>
+        <v>0.00010290684</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2967,13 +3012,13 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.04312520686875</v>
+        <v>0.1906365666666667</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1906365666666667</v>
+        <v>25.0017</v>
       </c>
       <c r="F82" t="n">
-        <v>25.0017</v>
+        <v>5.3154533e-06</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2998,13 +3043,13 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.0582026249159</v>
+        <v>0.2423579133333334</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2423579133333334</v>
+        <v>24.903823</v>
       </c>
       <c r="F83" t="n">
-        <v>24.903823</v>
+        <v>6.7575816e-06</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3029,13 +3074,13 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.05971120397</v>
+        <v>0.2478447</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2478447</v>
+        <v>24.975863</v>
       </c>
       <c r="F84" t="n">
-        <v>24.975863</v>
+        <v>6.9105679e-06</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3060,13 +3105,13 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>9.302111178350001</v>
+        <v>3.697844733333333</v>
       </c>
       <c r="E85" t="n">
-        <v>3.697844733333333</v>
+        <v>24.975863</v>
       </c>
       <c r="F85" t="n">
-        <v>24.975863</v>
+        <v>0.00010310572</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3091,13 +3136,13 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.0677495599282</v>
+        <v>0.2705204866666667</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2705204866666667</v>
+        <v>25.625247</v>
       </c>
       <c r="F86" t="n">
-        <v>25.625247</v>
+        <v>7.542829e-06</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3122,13 +3167,13 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.0698186873221</v>
+        <v>0.2846061933333334</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2846061933333334</v>
+        <v>25.45853</v>
       </c>
       <c r="F87" t="n">
-        <v>25.45853</v>
+        <v>7.9355759e-06</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3153,13 +3198,13 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4.6663811920231</v>
+        <v>3.7346062</v>
       </c>
       <c r="E88" t="n">
-        <v>3.7346062</v>
+        <v>25.45853</v>
       </c>
       <c r="F88" t="n">
-        <v>25.45853</v>
+        <v>0.00010413073</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3184,13 +3229,13 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.056844902548</v>
+        <v>0.2374198</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2374198</v>
+        <v>24.838987</v>
       </c>
       <c r="F89" t="n">
-        <v>24.838987</v>
+        <v>6.619894e-06</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3215,13 +3260,13 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>4.799394890553</v>
+        <v>3.6874198</v>
       </c>
       <c r="E90" t="n">
-        <v>3.6874198</v>
+        <v>24.838987</v>
       </c>
       <c r="F90" t="n">
-        <v>24.838987</v>
+        <v>0.00010281505</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3246,13 +3291,13 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.0577500503932</v>
+        <v>0.2407118733333333</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2407118733333333</v>
+        <v>24.882211</v>
       </c>
       <c r="F91" t="n">
-        <v>24.882211</v>
+        <v>6.7116857e-06</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3277,13 +3322,13 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>5.040750031516199</v>
+        <v>3.690711866666667</v>
       </c>
       <c r="E92" t="n">
-        <v>3.690711866666667</v>
+        <v>24.882211</v>
       </c>
       <c r="F92" t="n">
-        <v>24.882211</v>
+        <v>0.00010290684</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3308,13 +3353,13 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.137672191152</v>
+        <v>0.5236850466666667</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5236850466666667</v>
+        <v>29.01076</v>
       </c>
       <c r="F93" t="n">
-        <v>29.01076</v>
+        <v>1.4601729e-05</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3339,13 +3384,13 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>41.445797436524</v>
+        <v>3.973685066666667</v>
       </c>
       <c r="E94" t="n">
-        <v>3.973685066666667</v>
+        <v>29.01076</v>
       </c>
       <c r="F94" t="n">
-        <v>29.01076</v>
+        <v>0.00011079688</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3370,13 +3415,13 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.0677495599282</v>
+        <v>0.2705204866666667</v>
       </c>
       <c r="E95" t="n">
-        <v>0.2705204866666667</v>
+        <v>26.569247</v>
       </c>
       <c r="F95" t="n">
-        <v>26.569247</v>
+        <v>7.542829e-06</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3401,13 +3446,13 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.0677495599282</v>
+        <v>0.2705204866666667</v>
       </c>
       <c r="E96" t="n">
-        <v>0.2705204866666667</v>
+        <v>26.569247</v>
       </c>
       <c r="F96" t="n">
-        <v>26.569247</v>
+        <v>7.542829e-06</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3432,13 +3477,13 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.0598620616882</v>
+        <v>0.24839338</v>
       </c>
       <c r="E97" t="n">
-        <v>0.24839338</v>
+        <v>24.983067</v>
       </c>
       <c r="F97" t="n">
-        <v>24.983067</v>
+        <v>6.9258665e-06</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3463,13 +3508,13 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>7.6878120330872</v>
+        <v>3.6983934</v>
       </c>
       <c r="E98" t="n">
-        <v>3.6983934</v>
+        <v>24.983067</v>
       </c>
       <c r="F98" t="n">
-        <v>24.983067</v>
+        <v>0.00010312102</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3494,13 +3539,13 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.08399933743490001</v>
+        <v>0.3361820266666667</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3361820266666667</v>
+        <v>26.135705</v>
       </c>
       <c r="F99" t="n">
-        <v>26.135705</v>
+        <v>9.3736469e-06</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3525,13 +3570,13 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.0515814674254</v>
+        <v>0.2182763866666667</v>
       </c>
       <c r="E100" t="n">
-        <v>0.2182763866666667</v>
+        <v>24.58764</v>
       </c>
       <c r="F100" t="n">
-        <v>24.58764</v>
+        <v>6.0861249e-06</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3556,13 +3601,13 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.0574483337778</v>
+        <v>0.2396145133333333</v>
       </c>
       <c r="E101" t="n">
-        <v>0.2396145133333333</v>
+        <v>24.867803</v>
       </c>
       <c r="F101" t="n">
-        <v>24.867803</v>
+        <v>6.6810885e-06</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3587,13 +3632,13 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>4.9373983208618</v>
+        <v>3.689614533333334</v>
       </c>
       <c r="E102" t="n">
-        <v>3.689614533333334</v>
+        <v>24.867803</v>
       </c>
       <c r="F102" t="n">
-        <v>24.867803</v>
+        <v>0.00010287624</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3618,13 +3663,13 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.07147812618340001</v>
+        <v>0.2906416666666667</v>
       </c>
       <c r="E103" t="n">
-        <v>0.2906416666666667</v>
+        <v>25.537774</v>
       </c>
       <c r="F103" t="n">
-        <v>25.537774</v>
+        <v>8.103860800000001e-06</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3649,13 +3694,13 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>4.8827281191024</v>
+        <v>3.740641666666666</v>
       </c>
       <c r="E104" t="n">
-        <v>3.740641666666666</v>
+        <v>25.537774</v>
       </c>
       <c r="F104" t="n">
-        <v>25.537774</v>
+        <v>0.00010429902</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3680,13 +3725,13 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.0746461433308</v>
+        <v>0.3021639266666667</v>
       </c>
       <c r="E105" t="n">
-        <v>0.3021639266666667</v>
+        <v>25.689058</v>
       </c>
       <c r="F105" t="n">
-        <v>25.689058</v>
+        <v>8.425131999999999e-06</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3711,13 +3756,13 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>5.3582086166638</v>
+        <v>3.752163933333333</v>
       </c>
       <c r="E106" t="n">
-        <v>3.752163933333333</v>
+        <v>25.689058</v>
       </c>
       <c r="F106" t="n">
-        <v>25.689058</v>
+        <v>0.00010462029</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3742,13 +3787,13 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.065443807725</v>
+        <v>0.2686945066666667</v>
       </c>
       <c r="E107" t="n">
-        <v>0.2686945066666667</v>
+        <v>25.249614</v>
       </c>
       <c r="F107" t="n">
-        <v>25.249614</v>
+        <v>7.4919157e-06</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -3773,13 +3818,13 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>11.712343643854</v>
+        <v>3.718694533333333</v>
       </c>
       <c r="E108" t="n">
-        <v>3.718694533333333</v>
+        <v>25.249614</v>
       </c>
       <c r="F108" t="n">
-        <v>25.249614</v>
+        <v>0.00010368707</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3804,13 +3849,13 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.0595603460628</v>
+        <v>0.24729602</v>
       </c>
       <c r="E109" t="n">
-        <v>0.24729602</v>
+        <v>24.968659</v>
       </c>
       <c r="F109" t="n">
-        <v>24.968659</v>
+        <v>6.8952693e-06</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3835,13 +3880,13 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>7.3783603134228</v>
+        <v>3.697296000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>3.697296000000001</v>
+        <v>24.968659</v>
       </c>
       <c r="F110" t="n">
-        <v>24.968659</v>
+        <v>0.00010309042</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -3866,13 +3911,13 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.09999028231820001</v>
+        <v>0.394342</v>
       </c>
       <c r="E111" t="n">
-        <v>0.394342</v>
+        <v>27.843328</v>
       </c>
       <c r="F111" t="n">
-        <v>27.843328</v>
+        <v>1.0995301e-05</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -3897,13 +3942,13 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.0677495599282</v>
+        <v>0.2705204866666667</v>
       </c>
       <c r="E112" t="n">
-        <v>0.2705204866666667</v>
+        <v>25.625247</v>
       </c>
       <c r="F112" t="n">
-        <v>25.625247</v>
+        <v>7.542829e-06</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -3928,13 +3973,13 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.056794488493</v>
+        <v>0.2334096733333333</v>
       </c>
       <c r="E113" t="n">
-        <v>0.2334096733333333</v>
+        <v>25.935469</v>
       </c>
       <c r="F113" t="n">
-        <v>25.935469</v>
+        <v>6.5080811e-06</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -3959,13 +4004,13 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.03590807487895</v>
+        <v>0.1643874466666667</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1643874466666667</v>
+        <v>24.657057</v>
       </c>
       <c r="F114" t="n">
-        <v>24.657057</v>
+        <v>4.5835582e-06</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -3990,13 +4035,13 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.0473408502367</v>
+        <v>0.20285302</v>
       </c>
       <c r="E115" t="n">
-        <v>0.20285302</v>
+        <v>25.329136</v>
       </c>
       <c r="F115" t="n">
-        <v>25.329136</v>
+        <v>5.6560805e-06</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -4021,13 +4066,13 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.0627283632002</v>
+        <v>0.25881828</v>
       </c>
       <c r="E116" t="n">
-        <v>0.25881828</v>
+        <v>25.119943</v>
       </c>
       <c r="F116" t="n">
-        <v>25.119943</v>
+        <v>7.2165404e-06</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4052,13 +4097,13 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>6.0332909109742</v>
+        <v>3.708818266666667</v>
       </c>
       <c r="E117" t="n">
-        <v>3.708818266666667</v>
+        <v>25.119943</v>
       </c>
       <c r="F117" t="n">
-        <v>25.119943</v>
+        <v>0.00010341169</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -4083,13 +4128,13 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.0677495599282</v>
+        <v>0.2705204866666667</v>
       </c>
       <c r="E118" t="n">
-        <v>0.2705204866666667</v>
+        <v>25.625247</v>
       </c>
       <c r="F118" t="n">
-        <v>25.625247</v>
+        <v>7.542829e-06</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -4114,13 +4159,13 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.0677495599282</v>
+        <v>0.2705204866666667</v>
       </c>
       <c r="E119" t="n">
-        <v>0.2705204866666667</v>
+        <v>25.625247</v>
       </c>
       <c r="F119" t="n">
-        <v>25.625247</v>
+        <v>7.542829e-06</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -4145,13 +4190,13 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.06152149965049999</v>
+        <v>0.2544288466666667</v>
       </c>
       <c r="E120" t="n">
-        <v>0.2544288466666667</v>
+        <v>25.062311</v>
       </c>
       <c r="F120" t="n">
-        <v>25.062311</v>
+        <v>7.0941514e-06</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -4176,13 +4221,13 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>6.075021460266499</v>
+        <v>3.704428866666667</v>
       </c>
       <c r="E121" t="n">
-        <v>3.704428866666667</v>
+        <v>25.062311</v>
       </c>
       <c r="F121" t="n">
-        <v>25.062311</v>
+        <v>0.00010328931</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -4207,13 +4252,13 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.0677495599282</v>
+        <v>0.2705204866666667</v>
       </c>
       <c r="E122" t="n">
-        <v>0.2705204866666667</v>
+        <v>25.625247</v>
       </c>
       <c r="F122" t="n">
-        <v>25.625247</v>
+        <v>7.542829e-06</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4238,13 +4283,13 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.07870463116269999</v>
+        <v>0.3076313</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3076313</v>
+        <v>26.259024</v>
       </c>
       <c r="F123" t="n">
-        <v>26.259024</v>
+        <v>8.577576899999999e-06</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -4269,13 +4314,13 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.0977298682561</v>
+        <v>0.3861207466666667</v>
       </c>
       <c r="E124" t="n">
-        <v>0.3861207466666667</v>
+        <v>26.791385</v>
       </c>
       <c r="F124" t="n">
-        <v>26.791385</v>
+        <v>1.0766071e-05</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4300,13 +4345,13 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>9.5805798885911</v>
+        <v>3.836120733333333</v>
       </c>
       <c r="E125" t="n">
-        <v>3.836120733333333</v>
+        <v>26.791385</v>
       </c>
       <c r="F125" t="n">
-        <v>26.791385</v>
+        <v>0.00010696123</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -4331,13 +4376,13 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.0377326648764</v>
+        <v>0.16883686</v>
       </c>
       <c r="E126" t="n">
-        <v>0.16883686</v>
+        <v>24.832696</v>
       </c>
       <c r="F126" t="n">
-        <v>24.832696</v>
+        <v>4.7076197e-06</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -4362,13 +4407,13 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.0677495599282</v>
+        <v>0.2705204866666667</v>
       </c>
       <c r="E127" t="n">
-        <v>0.2705204866666667</v>
+        <v>25.625247</v>
       </c>
       <c r="F127" t="n">
-        <v>25.625247</v>
+        <v>7.542829e-06</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -4393,13 +4438,13 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.0723832740287</v>
+        <v>0.29393374</v>
       </c>
       <c r="E128" t="n">
-        <v>0.29393374</v>
+        <v>25.580998</v>
       </c>
       <c r="F128" t="n">
-        <v>25.580998</v>
+        <v>8.1956526e-06</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4424,13 +4469,13 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1.9467082600657</v>
+        <v>3.743933733333333</v>
       </c>
       <c r="E129" t="n">
-        <v>3.743933733333333</v>
+        <v>25.580998</v>
       </c>
       <c r="F129" t="n">
-        <v>25.580998</v>
+        <v>0.00010439081</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4455,13 +4500,13 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.0541294590332</v>
+        <v>0.2275435733333333</v>
       </c>
       <c r="E130" t="n">
-        <v>0.2275435733333333</v>
+        <v>24.709315</v>
       </c>
       <c r="F130" t="n">
-        <v>24.709315</v>
+        <v>6.3445187e-06</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -4486,13 +4531,13 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>6.4798294686832</v>
+        <v>3.6775436</v>
       </c>
       <c r="E131" t="n">
-        <v>3.6775436</v>
+        <v>24.709315</v>
       </c>
       <c r="F131" t="n">
-        <v>24.709315</v>
+        <v>0.00010253967</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -4517,13 +4562,13 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.0586551982275</v>
+        <v>0.2440039466666667</v>
       </c>
       <c r="E132" t="n">
-        <v>0.2440039466666667</v>
+        <v>24.925435</v>
       </c>
       <c r="F132" t="n">
-        <v>24.925435</v>
+        <v>6.8034775e-06</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -4548,13 +4593,13 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1.1326251924695</v>
+        <v>3.694003933333334</v>
       </c>
       <c r="E133" t="n">
-        <v>3.694003933333334</v>
+        <v>24.925435</v>
       </c>
       <c r="F133" t="n">
-        <v>24.925435</v>
+        <v>0.00010299863</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -4579,13 +4624,13 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0.0458394174394</v>
+        <v>0.19629886</v>
       </c>
       <c r="E134" t="n">
-        <v>0.19629886</v>
+        <v>24.357691</v>
       </c>
       <c r="F134" t="n">
-        <v>24.357691</v>
+        <v>5.4733332e-06</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -4610,13 +4655,13 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.0458394174394</v>
+        <v>0.19629886</v>
       </c>
       <c r="E135" t="n">
-        <v>0.19629886</v>
+        <v>24.357691</v>
       </c>
       <c r="F135" t="n">
-        <v>24.357691</v>
+        <v>5.4733332e-06</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -4641,13 +4686,13 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.0634826532372</v>
+        <v>0.2615616733333334</v>
       </c>
       <c r="E136" t="n">
-        <v>0.2615616733333334</v>
+        <v>25.155963</v>
       </c>
       <c r="F136" t="n">
-        <v>25.155963</v>
+        <v>7.2930336e-06</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -4672,13 +4717,13 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>6.9786701971102</v>
+        <v>3.711561666666667</v>
       </c>
       <c r="E137" t="n">
-        <v>3.711561666666667</v>
+        <v>25.155963</v>
       </c>
       <c r="F137" t="n">
-        <v>25.155963</v>
+        <v>0.00010348819</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -4703,13 +4748,13 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.0574483337778</v>
+        <v>0.2396145133333333</v>
       </c>
       <c r="E138" t="n">
-        <v>0.2396145133333333</v>
+        <v>24.867803</v>
       </c>
       <c r="F138" t="n">
-        <v>24.867803</v>
+        <v>6.6810885e-06</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -4734,13 +4779,13 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>4.9373983208618</v>
+        <v>3.689614533333334</v>
       </c>
       <c r="E139" t="n">
-        <v>3.689614533333334</v>
+        <v>24.867803</v>
       </c>
       <c r="F139" t="n">
-        <v>24.867803</v>
+        <v>0.00010287624</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -4765,13 +4810,13 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.0458394174394</v>
+        <v>0.19629886</v>
       </c>
       <c r="E140" t="n">
-        <v>0.19629886</v>
+        <v>25.301691</v>
       </c>
       <c r="F140" t="n">
-        <v>25.301691</v>
+        <v>5.4733332e-06</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -4796,13 +4841,13 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.0458394174394</v>
+        <v>0.19629886</v>
       </c>
       <c r="E141" t="n">
-        <v>0.19629886</v>
+        <v>25.301691</v>
       </c>
       <c r="F141" t="n">
-        <v>25.301691</v>
+        <v>5.4733332e-06</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -4827,13 +4872,13 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.0458394174394</v>
+        <v>0.19629886</v>
       </c>
       <c r="E142" t="n">
-        <v>0.19629886</v>
+        <v>25.301691</v>
       </c>
       <c r="F142" t="n">
-        <v>25.301691</v>
+        <v>5.4733332e-06</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -4858,13 +4903,13 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.07524957535070001</v>
+        <v>0.30435864</v>
       </c>
       <c r="E143" t="n">
-        <v>0.30435864</v>
+        <v>25.717874</v>
       </c>
       <c r="F143" t="n">
-        <v>25.717874</v>
+        <v>8.4863265e-06</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -4889,13 +4934,13 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0.0697073315903</v>
+        <v>0.2839278466666667</v>
       </c>
       <c r="E144" t="n">
-        <v>0.2839278466666667</v>
+        <v>25.464276</v>
       </c>
       <c r="F144" t="n">
-        <v>25.464276</v>
+        <v>7.9166617e-06</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -4920,13 +4965,13 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>8.4447698453833</v>
+        <v>3.733927866666666</v>
       </c>
       <c r="E145" t="n">
-        <v>3.733927866666666</v>
+        <v>25.464276</v>
       </c>
       <c r="F145" t="n">
-        <v>25.464276</v>
+        <v>0.00010411182</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -4951,13 +4996,13 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.0348843471396</v>
+        <v>0.1591880533333334</v>
       </c>
       <c r="E146" t="n">
-        <v>0.1591880533333334</v>
+        <v>24.667914</v>
       </c>
       <c r="F146" t="n">
-        <v>24.667914</v>
+        <v>4.4385853e-06</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -4982,13 +5027,13 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0.0521683054465</v>
+        <v>0.2204107466666667</v>
       </c>
       <c r="E147" t="n">
-        <v>0.2204107466666667</v>
+        <v>24.615663</v>
       </c>
       <c r="F147" t="n">
-        <v>24.615663</v>
+        <v>6.1456365e-06</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -5013,13 +5058,13 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3.1802683218395</v>
+        <v>3.670410733333334</v>
       </c>
       <c r="E148" t="n">
-        <v>3.670410733333334</v>
+        <v>24.615663</v>
       </c>
       <c r="F148" t="n">
-        <v>24.615663</v>
+        <v>0.00010234079</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -5044,13 +5089,13 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.0666506701747</v>
+        <v>0.2730839333333334</v>
       </c>
       <c r="E149" t="n">
-        <v>0.2730839333333334</v>
+        <v>25.307246</v>
       </c>
       <c r="F149" t="n">
-        <v>25.307246</v>
+        <v>7.6143047e-06</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -5075,13 +5120,13 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>6.1660256944617</v>
+        <v>3.723083933333333</v>
       </c>
       <c r="E150" t="n">
-        <v>3.723083933333333</v>
+        <v>25.307246</v>
       </c>
       <c r="F150" t="n">
-        <v>25.307246</v>
+        <v>0.00010380946</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -5106,13 +5151,13 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.056844902548</v>
+        <v>0.2374198</v>
       </c>
       <c r="E151" t="n">
-        <v>0.2374198</v>
+        <v>24.838987</v>
       </c>
       <c r="F151" t="n">
-        <v>24.838987</v>
+        <v>6.619894e-06</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -5137,13 +5182,13 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7.650444890553</v>
+        <v>3.6874198</v>
       </c>
       <c r="E152" t="n">
-        <v>3.6874198</v>
+        <v>24.838987</v>
       </c>
       <c r="F152" t="n">
-        <v>24.838987</v>
+        <v>0.00010281505</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -5168,13 +5213,13 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.06897817208929999</v>
+        <v>0.2808931733333333</v>
       </c>
       <c r="E153" t="n">
-        <v>0.2808931733333333</v>
+        <v>25.444945</v>
       </c>
       <c r="F153" t="n">
-        <v>25.444945</v>
+        <v>7.832047000000001e-06</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -5199,13 +5244,13 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>7.3877782005363</v>
+        <v>3.7308932</v>
       </c>
       <c r="E154" t="n">
-        <v>3.7308932</v>
+        <v>25.444945</v>
       </c>
       <c r="F154" t="n">
-        <v>25.444945</v>
+        <v>0.0001040272</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -5230,13 +5275,13 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.0919516969237</v>
+        <v>0.3647772</v>
       </c>
       <c r="E155" t="n">
-        <v>0.3647772</v>
+        <v>26.528734</v>
       </c>
       <c r="F155" t="n">
-        <v>26.528734</v>
+        <v>1.0170956e-05</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -5261,13 +5306,13 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.0521683054465</v>
+        <v>0.2204107466666667</v>
       </c>
       <c r="E156" t="n">
-        <v>0.2204107466666667</v>
+        <v>24.615663</v>
       </c>
       <c r="F156" t="n">
-        <v>24.615663</v>
+        <v>6.1456365e-06</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -5292,13 +5337,13 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>3.2833183218395</v>
+        <v>3.670410733333334</v>
       </c>
       <c r="E157" t="n">
-        <v>3.670410733333334</v>
+        <v>24.615663</v>
       </c>
       <c r="F157" t="n">
-        <v>24.615663</v>
+        <v>0.00010234079</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -5323,13 +5368,13 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0.0458394174394</v>
+        <v>0.19629886</v>
       </c>
       <c r="E158" t="n">
-        <v>0.19629886</v>
+        <v>25.301691</v>
       </c>
       <c r="F158" t="n">
-        <v>25.301691</v>
+        <v>5.4733332e-06</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -5354,13 +5399,13 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.0486985727946</v>
+        <v>0.2077911333333333</v>
       </c>
       <c r="E159" t="n">
-        <v>0.2077911333333333</v>
+        <v>24.449972</v>
       </c>
       <c r="F159" t="n">
-        <v>24.449972</v>
+        <v>5.7937681e-06</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -5385,13 +5430,13 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>3.5202986137336</v>
+        <v>3.657791133333333</v>
       </c>
       <c r="E160" t="n">
-        <v>3.657791133333333</v>
+        <v>24.449972</v>
       </c>
       <c r="F160" t="n">
-        <v>24.449972</v>
+        <v>0.00010198892</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -5416,13 +5461,13 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0.053978601116</v>
+        <v>0.2269949</v>
       </c>
       <c r="E161" t="n">
-        <v>0.2269949</v>
+        <v>24.702111</v>
       </c>
       <c r="F161" t="n">
-        <v>24.702111</v>
+        <v>6.3292201e-06</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -5447,13 +5492,13 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>6.342278602746</v>
+        <v>3.676994866666667</v>
       </c>
       <c r="E162" t="n">
-        <v>3.676994866666667</v>
+        <v>24.702111</v>
       </c>
       <c r="F162" t="n">
-        <v>24.702111</v>
+        <v>0.00010252437</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -5478,13 +5523,13 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.0607672096225</v>
+        <v>0.2516854533333334</v>
       </c>
       <c r="E163" t="n">
-        <v>0.2516854533333334</v>
+        <v>25.026291</v>
       </c>
       <c r="F163" t="n">
-        <v>25.026291</v>
+        <v>7.0176583e-06</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -5509,13 +5554,13 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>9.509267174140499</v>
+        <v>3.701685466666667</v>
       </c>
       <c r="E164" t="n">
-        <v>3.701685466666667</v>
+        <v>25.026291</v>
       </c>
       <c r="F164" t="n">
-        <v>25.026291</v>
+        <v>0.00010321281</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -5540,13 +5585,13 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.0551854645857</v>
+        <v>0.2313843266666667</v>
       </c>
       <c r="E165" t="n">
-        <v>0.2313843266666667</v>
+        <v>24.759743</v>
       </c>
       <c r="F165" t="n">
-        <v>24.759743</v>
+        <v>6.4516091e-06</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -5571,13 +5616,13 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>3.4065604643737</v>
+        <v>3.681384333333334</v>
       </c>
       <c r="E166" t="n">
-        <v>3.681384333333334</v>
+        <v>24.759743</v>
       </c>
       <c r="F166" t="n">
-        <v>24.759743</v>
+        <v>0.00010264676</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -5602,13 +5647,13 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.1093397115999</v>
+        <v>0.42315294</v>
       </c>
       <c r="E167" t="n">
-        <v>0.42315294</v>
+        <v>27.556002</v>
       </c>
       <c r="F167" t="n">
-        <v>27.556002</v>
+        <v>1.1798627e-05</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -5633,13 +5678,13 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>13.5080898784889</v>
+        <v>3.873152933333333</v>
       </c>
       <c r="E168" t="n">
-        <v>3.873152933333333</v>
+        <v>27.556002</v>
       </c>
       <c r="F168" t="n">
-        <v>27.556002</v>
+        <v>0.00010799378</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -5664,13 +5709,13 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.0494911080235</v>
+        <v>0.2086691333333333</v>
       </c>
       <c r="E169" t="n">
-        <v>0.2086691333333333</v>
+        <v>24.568951</v>
       </c>
       <c r="F169" t="n">
-        <v>24.568951</v>
+        <v>5.8182491e-06</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -5695,13 +5740,13 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.0530734522907</v>
+        <v>0.22370282</v>
       </c>
       <c r="E170" t="n">
-        <v>0.22370282</v>
+        <v>24.658887</v>
       </c>
       <c r="F170" t="n">
-        <v>24.658887</v>
+        <v>6.2374283e-06</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -5726,13 +5771,13 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>3.507498461802701</v>
+        <v>3.6737028</v>
       </c>
       <c r="E171" t="n">
-        <v>3.6737028</v>
+        <v>24.658887</v>
       </c>
       <c r="F171" t="n">
-        <v>24.658887</v>
+        <v>0.00010243258</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -5757,13 +5802,13 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0.05111229880400001</v>
+        <v>0.2165699933333333</v>
       </c>
       <c r="E172" t="n">
-        <v>0.2165699933333333</v>
+        <v>24.565236</v>
       </c>
       <c r="F172" t="n">
-        <v>24.565236</v>
+        <v>6.0385461e-06</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -5788,13 +5833,13 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0.07820959230140001</v>
+        <v>0.3501694933333334</v>
       </c>
       <c r="E173" t="n">
-        <v>0.3501694933333334</v>
+        <v>26.920655</v>
       </c>
       <c r="F173" t="n">
-        <v>26.920655</v>
+        <v>9.7636547e-06</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -5819,13 +5864,13 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4.0994095929704</v>
+        <v>3.800169466666667</v>
       </c>
       <c r="E174" t="n">
-        <v>3.800169466666667</v>
+        <v>26.920655</v>
       </c>
       <c r="F174" t="n">
-        <v>26.920655</v>
+        <v>0.00010595881</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -5850,13 +5895,13 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0.07609758100649999</v>
+        <v>0.3424879866666667</v>
       </c>
       <c r="E175" t="n">
-        <v>0.3424879866666667</v>
+        <v>26.819799</v>
       </c>
       <c r="F175" t="n">
-        <v>26.819799</v>
+        <v>9.5494739e-06</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -5881,13 +5926,13 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>3.3072476013995</v>
+        <v>3.792488</v>
       </c>
       <c r="E176" t="n">
-        <v>3.792488</v>
+        <v>26.819799</v>
       </c>
       <c r="F176" t="n">
-        <v>26.819799</v>
+        <v>0.00010574463</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -5912,13 +5957,13 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0.0530734522907</v>
+        <v>0.22370282</v>
       </c>
       <c r="E177" t="n">
-        <v>0.22370282</v>
+        <v>24.658887</v>
       </c>
       <c r="F177" t="n">
-        <v>24.658887</v>
+        <v>6.2374283e-06</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -5943,13 +5988,13 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>2.991273461802701</v>
+        <v>2.6367028</v>
       </c>
       <c r="E178" t="n">
-        <v>2.6367028</v>
+        <v>24.658887</v>
       </c>
       <c r="F178" t="n">
-        <v>24.658887</v>
+        <v>7.3518271e-05</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -5974,13 +6019,13 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0.0530734522907</v>
+        <v>0.22370282</v>
       </c>
       <c r="E179" t="n">
-        <v>0.22370282</v>
+        <v>24.658887</v>
       </c>
       <c r="F179" t="n">
-        <v>24.658887</v>
+        <v>6.2374283e-06</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -6005,13 +6050,13 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>3.545898461802701</v>
+        <v>3.2427028</v>
       </c>
       <c r="E180" t="n">
-        <v>3.2427028</v>
+        <v>24.658887</v>
       </c>
       <c r="F180" t="n">
-        <v>24.658887</v>
+        <v>9.0415159e-05</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -6036,13 +6081,13 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0.0530734522907</v>
+        <v>0.22370282</v>
       </c>
       <c r="E181" t="n">
-        <v>0.22370282</v>
+        <v>24.658887</v>
       </c>
       <c r="F181" t="n">
-        <v>24.658887</v>
+        <v>6.2374283e-06</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -6067,13 +6112,13 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>3.545898461802701</v>
+        <v>3.2427028</v>
       </c>
       <c r="E182" t="n">
-        <v>3.2427028</v>
+        <v>24.658887</v>
       </c>
       <c r="F182" t="n">
-        <v>24.658887</v>
+        <v>9.0415159e-05</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -6098,13 +6143,13 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0.0521683054465</v>
+        <v>0.2204107466666667</v>
       </c>
       <c r="E183" t="n">
-        <v>0.2204107466666667</v>
+        <v>24.615663</v>
       </c>
       <c r="F183" t="n">
-        <v>24.615663</v>
+        <v>6.1456365e-06</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -6129,13 +6174,13 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>2.7622183218395</v>
+        <v>3.173410733333333</v>
       </c>
       <c r="E184" t="n">
-        <v>3.173410733333333</v>
+        <v>24.615663</v>
       </c>
       <c r="F184" t="n">
-        <v>24.615663</v>
+        <v>8.8483112e-05</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -6160,13 +6205,13 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>0.0530734522907</v>
+        <v>0.22370282</v>
       </c>
       <c r="E185" t="n">
-        <v>0.22370282</v>
+        <v>24.658887</v>
       </c>
       <c r="F185" t="n">
-        <v>24.658887</v>
+        <v>6.2374283e-06</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -6191,13 +6236,13 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>3.8195734618027</v>
+        <v>2.6627028</v>
       </c>
       <c r="E186" t="n">
-        <v>2.6627028</v>
+        <v>24.658887</v>
       </c>
       <c r="F186" t="n">
-        <v>24.658887</v>
+        <v>7.424322e-05</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -6222,13 +6267,13 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0.34798504869</v>
+        <v>1.572815533333334</v>
       </c>
       <c r="E187" t="n">
-        <v>1.572815533333334</v>
+        <v>48.482544</v>
       </c>
       <c r="F187" t="n">
-        <v>48.482544</v>
+        <v>4.385427e-05</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -6253,13 +6298,13 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0.28677918734717</v>
+        <v>1.420732266666667</v>
       </c>
       <c r="E188" t="n">
-        <v>1.420732266666667</v>
+        <v>49.397857</v>
       </c>
       <c r="F188" t="n">
-        <v>49.397857</v>
+        <v>3.9613785e-05</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -6284,13 +6329,13 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>0.0315120692432</v>
+        <v>0.1383857333333333</v>
       </c>
       <c r="E189" t="n">
-        <v>0.1383857333333333</v>
+        <v>23.191901</v>
       </c>
       <c r="F189" t="n">
-        <v>23.191901</v>
+        <v>3.8585614e-06</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -6315,13 +6360,13 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1.32852777831154</v>
+        <v>0.30131676</v>
       </c>
       <c r="E190" t="n">
-        <v>0.30131676</v>
+        <v>25.286305</v>
       </c>
       <c r="F190" t="n">
-        <v>25.286305</v>
+        <v>8.401510699999999e-06</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -6346,13 +6391,13 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0.0836592036894</v>
+        <v>0.27491822</v>
       </c>
       <c r="E191" t="n">
-        <v>0.27491822</v>
+        <v>25.099462</v>
       </c>
       <c r="F191" t="n">
-        <v>25.099462</v>
+        <v>7.6654494e-06</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -6377,13 +6422,13 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>0.059119844448117</v>
+        <v>0.19179</v>
       </c>
       <c r="E192" t="n">
-        <v>0.19179</v>
+        <v>23.6798</v>
       </c>
       <c r="F192" t="n">
-        <v>23.6798</v>
+        <v>5.3476141e-06</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -6408,13 +6453,13 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0.04138804064142</v>
+        <v>0.2018797666666667</v>
       </c>
       <c r="E193" t="n">
-        <v>0.2018797666666667</v>
+        <v>24.497781</v>
       </c>
       <c r="F193" t="n">
-        <v>24.497781</v>
+        <v>5.6289435e-06</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -6439,13 +6484,13 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0.25901362629714</v>
+        <v>0.8725264666666668</v>
       </c>
       <c r="E194" t="n">
-        <v>0.8725264666666668</v>
+        <v>35.394543</v>
       </c>
       <c r="F194" t="n">
-        <v>35.394543</v>
+        <v>2.4328353e-05</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -6470,13 +6515,13 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0.19091670070794</v>
+        <v>0.6438424066666667</v>
       </c>
       <c r="E195" t="n">
-        <v>0.6438424066666667</v>
+        <v>29.987222</v>
       </c>
       <c r="F195" t="n">
-        <v>29.987222</v>
+        <v>1.7952035e-05</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -6501,13 +6546,13 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0.2037353926207</v>
+        <v>0.6889978000000001</v>
       </c>
       <c r="E196" t="n">
-        <v>0.6889978000000001</v>
+        <v>30.658733</v>
       </c>
       <c r="F196" t="n">
-        <v>30.658733</v>
+        <v>1.9211086e-05</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -6532,13 +6577,13 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>0.15586974231294</v>
+        <v>0.8618513333333333</v>
       </c>
       <c r="E197" t="n">
-        <v>0.8618513333333333</v>
+        <v>35.531302</v>
       </c>
       <c r="F197" t="n">
-        <v>35.531302</v>
+        <v>2.4030702e-05</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -6563,13 +6608,13 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0.2437455802438</v>
+        <v>0.8316106</v>
       </c>
       <c r="E198" t="n">
-        <v>0.8316106</v>
+        <v>32.686999</v>
       </c>
       <c r="F198" t="n">
-        <v>32.686999</v>
+        <v>2.318751e-05</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -6594,13 +6639,13 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>0.08625901348289999</v>
+        <v>0.41909108</v>
       </c>
       <c r="E199" t="n">
-        <v>0.41909108</v>
+        <v>30.944361</v>
       </c>
       <c r="F199" t="n">
-        <v>30.944361</v>
+        <v>1.1685371e-05</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -6625,13 +6670,13 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>0.12722611518</v>
+        <v>0.22021124</v>
       </c>
       <c r="E200" t="n">
-        <v>0.22021124</v>
+        <v>15.22852</v>
       </c>
       <c r="F200" t="n">
-        <v>15.22852</v>
+        <v>6.1400737e-06</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -6656,13 +6701,13 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0.21161846318511</v>
+        <v>0.6361475733333334</v>
       </c>
       <c r="E201" t="n">
-        <v>0.6361475733333334</v>
+        <v>29.497138</v>
       </c>
       <c r="F201" t="n">
-        <v>29.497138</v>
+        <v>1.7737482e-05</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -6687,13 +6732,13 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.2733278094156</v>
+        <v>0.8184172666666667</v>
       </c>
       <c r="E202" t="n">
-        <v>0.8184172666666667</v>
+        <v>34.653679</v>
       </c>
       <c r="F202" t="n">
-        <v>34.653679</v>
+        <v>2.2819645e-05</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -6718,13 +6763,13 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.000190504069009</v>
+        <v>0.0007406255333333334</v>
       </c>
       <c r="E203" t="n">
-        <v>0.0007406255333333334</v>
+        <v>0.011316366</v>
       </c>
       <c r="F203" t="n">
-        <v>0.011316366</v>
+        <v>2.0650606e-08</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -6749,13 +6794,13 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>0.000585234912753</v>
+        <v>0.002367028266666667</v>
       </c>
       <c r="E204" t="n">
-        <v>0.002367028266666667</v>
+        <v>0.034524146</v>
       </c>
       <c r="F204" t="n">
-        <v>0.034524146</v>
+        <v>6.5999028e-08</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -6780,13 +6825,13 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>0.15952850541</v>
+        <v>0.8138482666666668</v>
       </c>
       <c r="E205" t="n">
-        <v>0.8138482666666668</v>
+        <v>14.69424</v>
       </c>
       <c r="F205" t="n">
-        <v>14.69424</v>
+        <v>2.2692249e-05</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -6811,13 +6856,13 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>0.11964637978</v>
+        <v>0.6103862</v>
       </c>
       <c r="E206" t="n">
-        <v>0.6103862</v>
+        <v>11.02068</v>
       </c>
       <c r="F206" t="n">
-        <v>11.02068</v>
+        <v>1.7019187e-05</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -6827,5 +6872,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>